--- a/raws/blueladder_stocks.xlsx
+++ b/raws/blueladder_stocks.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06_주식관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A300FF15-B946-4693-AB04-3483B9B1AE74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A589BF-ABEB-44ED-B47B-397775A028EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{2885CAE9-EA0D-4ACC-BD79-EA9006DBB085}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2" xr2:uid="{2885CAE9-EA0D-4ACC-BD79-EA9006DBB085}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020.6.DowJones" sheetId="1" r:id="rId1"/>
+    <sheet name="2020.6.다우존스" sheetId="1" r:id="rId1"/>
+    <sheet name="2020.6.배당킹" sheetId="2" r:id="rId2"/>
+    <sheet name="2020.6.배당" sheetId="3" r:id="rId3"/>
+    <sheet name="2020.7.배당" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="157">
   <si>
     <t>번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -241,6 +244,278 @@
   </si>
   <si>
     <t>Exxon Mobil Corp.</t>
+  </si>
+  <si>
+    <t>티커</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당률</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당성향</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABM</t>
+  </si>
+  <si>
+    <t>ABM Industries, Inc.</t>
+  </si>
+  <si>
+    <t>AWR</t>
+  </si>
+  <si>
+    <t>American States Water Co.</t>
+  </si>
+  <si>
+    <t>CBSH</t>
+  </si>
+  <si>
+    <t>Commerce Bancshares, Inc. (Missouri)</t>
+  </si>
+  <si>
+    <t>CINF</t>
+  </si>
+  <si>
+    <t>Cincinnati Financial Corp.</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Colgate-Palmolive Co.</t>
+  </si>
+  <si>
+    <t>CWT</t>
+  </si>
+  <si>
+    <t>California Water Service Group</t>
+  </si>
+  <si>
+    <t>DOV</t>
+  </si>
+  <si>
+    <t>Dover Corp.</t>
+  </si>
+  <si>
+    <t>EMR</t>
+  </si>
+  <si>
+    <t>Emerson Electric Co.</t>
+  </si>
+  <si>
+    <t>FMCB</t>
+  </si>
+  <si>
+    <t>Farmers &amp; Merchants Bancorp (California)</t>
+  </si>
+  <si>
+    <t>FRT</t>
+  </si>
+  <si>
+    <t>Federal Realty Investment Trust</t>
+  </si>
+  <si>
+    <t>GPC</t>
+  </si>
+  <si>
+    <t>Genuine Parts Co.</t>
+  </si>
+  <si>
+    <t>HRL</t>
+  </si>
+  <si>
+    <t>Hormel Foods Corp.</t>
+  </si>
+  <si>
+    <t>LANC</t>
+  </si>
+  <si>
+    <t>Lancaster Colony Corp.</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>Lowe's Cos., Inc.</t>
+  </si>
+  <si>
+    <t>NDSN</t>
+  </si>
+  <si>
+    <t>Nordson Corp.</t>
+  </si>
+  <si>
+    <t>NWN</t>
+  </si>
+  <si>
+    <t>Northwest Natural Holding Co.</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Parker-Hannifin Corp.</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>Stepan Co.</t>
+  </si>
+  <si>
+    <t>SJW</t>
+  </si>
+  <si>
+    <t>SJW Group</t>
+  </si>
+  <si>
+    <t>SWK</t>
+  </si>
+  <si>
+    <t>Stanley Black &amp; Decker, Inc.</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Tootsie Roll Industries, Inc.</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Altria Group, Inc.</t>
+  </si>
+  <si>
+    <t>FUL</t>
+  </si>
+  <si>
+    <t>H.B. Fuller Co.</t>
+  </si>
+  <si>
+    <t>SYY</t>
+  </si>
+  <si>
+    <t>Sysco Corp.</t>
+  </si>
+  <si>
+    <t>2020.6.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년 6월 1일 월요일</t>
+  </si>
+  <si>
+    <t>L3해리스 테크놀로지스 (LHX)</t>
+  </si>
+  <si>
+    <t>넥스테라 에너지 (NEE)</t>
+  </si>
+  <si>
+    <t>2020년 6월 3일 수요일</t>
+  </si>
+  <si>
+    <t>퀄컴 (QCOM)</t>
+  </si>
+  <si>
+    <t>홈디포 (HD)</t>
+  </si>
+  <si>
+    <t>2020년 6월 4일 목요일</t>
+  </si>
+  <si>
+    <t>뱅크오브아메리카 (BAC)</t>
+  </si>
+  <si>
+    <t>블랙록 (BLK)</t>
+  </si>
+  <si>
+    <t>엔비디아 (NVDA)</t>
+  </si>
+  <si>
+    <t>펩시코 (PEP)</t>
+  </si>
+  <si>
+    <t>2020년 6월 9일 화요일</t>
+  </si>
+  <si>
+    <t>CME그룹 (CME)</t>
+  </si>
+  <si>
+    <t>MGM 리조트 인터내셔널 (MGM)</t>
+  </si>
+  <si>
+    <t>노턴라이프록 (NLOK)</t>
+  </si>
+  <si>
+    <t>휴렛패커드 엔터프라이즈 (HPE)</t>
+  </si>
+  <si>
+    <t>휴렛팩커드 (HPQ)</t>
+  </si>
+  <si>
+    <t>2020년 6월 10일 수요일</t>
+  </si>
+  <si>
+    <t>베스트바이 (BBY)</t>
+  </si>
+  <si>
+    <t>2020년 6월 11일 목요일</t>
+  </si>
+  <si>
+    <t>Nasdaq Inc (NDAQ)</t>
+  </si>
+  <si>
+    <t>길리어드 사이언시스 (GILD)</t>
+  </si>
+  <si>
+    <t>2020년 6월 12일 금요일</t>
+  </si>
+  <si>
+    <t>Digital Realty Trust Inc (DLR)</t>
+  </si>
+  <si>
+    <t>알트리아 그룹 (MO)</t>
+  </si>
+  <si>
+    <t>코카콜라 (KO)</t>
+  </si>
+  <si>
+    <t>2020년 6월 15일 월요일</t>
+  </si>
+  <si>
+    <t>프로로지스 (PLD)</t>
+  </si>
+  <si>
+    <t>2020년 6월 16일 화요일</t>
+  </si>
+  <si>
+    <t>램리서치 (LRCX)</t>
+  </si>
+  <si>
+    <t>2020년 6월 29일 월요일</t>
+  </si>
+  <si>
+    <t>Essex Property Trust Inc (ESS)</t>
   </si>
 </sst>
 </file>
@@ -251,7 +526,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +564,54 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="KoPubWorld바탕체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F4A54"/>
+      <name val="KoPubWorld바탕체 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="KoPubWorld바탕체 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="KoPubWorld바탕체 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="KoPubWorld바탕체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +627,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,15 +685,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,10 +721,104 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A78FD40-308C-476D-BB9F-1B9CB6D132E5}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1604,4 +2052,1322 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3848DF-75C9-4FB6-8E5F-AD590273112F}">
+  <dimension ref="B2:H31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="16">
+        <v>31.62</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2.3045137E-2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>14.81</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.33961026799999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="16">
+        <v>76.489999999999995</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1.5746989999999999E-2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>33.06</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.51437216299999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="16">
+        <v>60.924999999999997</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1.6766397999999998E-2</v>
+      </c>
+      <c r="G6" s="18">
+        <v>18.97</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.315237504</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="16">
+        <v>61.11</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3.8868053E-2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>143.97</v>
+      </c>
+      <c r="H7" s="19">
+        <v>5.3786270350000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="20">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="22">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="F8" s="23">
+        <v>2.3666210999999999E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>24.77</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.58881590100000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="16">
+        <v>45.95</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1.7696197E-2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>43.72</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.76593720300000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="16">
+        <v>96.61</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2.027027E-2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>18.72</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.377804472</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="16">
+        <v>61.35</v>
+      </c>
+      <c r="F11" s="17">
+        <v>3.2748924999999998E-2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.56001810200000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="16">
+        <v>715</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="G12" s="18">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.29915525300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="16">
+        <v>90.47</v>
+      </c>
+      <c r="F13" s="17">
+        <v>4.7575584999999997E-2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>20.02</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.92254596099999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="16">
+        <v>85.59</v>
+      </c>
+      <c r="F14" s="17">
+        <v>3.6816605000000002E-2</v>
+      </c>
+      <c r="G14" s="18">
+        <v>20.87</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.75028036499999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="14">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="16">
+        <v>46.67</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1.8894108E-2</v>
+      </c>
+      <c r="G15" s="18">
+        <v>27</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.51191578000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="20">
+        <v>13</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="22">
+        <v>142.15</v>
+      </c>
+      <c r="F16" s="23">
+        <v>2.6975224999999999E-2</v>
+      </c>
+      <c r="G16" s="24">
+        <v>21.86</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.584345687</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
+        <v>14</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="22">
+        <v>45.6</v>
+      </c>
+      <c r="F17" s="23">
+        <v>3.5353534999999998E-2</v>
+      </c>
+      <c r="G17" s="24">
+        <v>19.48</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.68791659500000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="16">
+        <v>154.99</v>
+      </c>
+      <c r="F18" s="17">
+        <v>2.1901572000000001E-2</v>
+      </c>
+      <c r="G18" s="18">
+        <v>30.52</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.66950220500000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="20">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="22">
+        <v>126.05</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1.7750524E-2</v>
+      </c>
+      <c r="G19" s="24">
+        <v>21.26</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.37100745400000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="22">
+        <v>154.87</v>
+      </c>
+      <c r="F20" s="23">
+        <v>3.7997112E-2</v>
+      </c>
+      <c r="G20" s="24">
+        <v>17.97</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.67191199000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="14">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="16">
+        <v>185.77</v>
+      </c>
+      <c r="F21" s="17">
+        <v>7.9066069999999995E-3</v>
+      </c>
+      <c r="G21" s="18">
+        <v>31.36</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.25161693400000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="14">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="16">
+        <v>57.13</v>
+      </c>
+      <c r="F22" s="17">
+        <v>3.3104824999999997E-2</v>
+      </c>
+      <c r="G22" s="18">
+        <v>26.36</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0.88008673999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
+        <v>20</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="22">
+        <v>115.62</v>
+      </c>
+      <c r="F23" s="23">
+        <v>2.5663169E-2</v>
+      </c>
+      <c r="G23" s="24">
+        <v>60.5</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1.5612768180000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="14">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="16">
+        <v>180.16</v>
+      </c>
+      <c r="F24" s="17">
+        <v>2.0297544000000001E-2</v>
+      </c>
+      <c r="G24" s="18">
+        <v>17.47</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0.34138629999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="16">
+        <v>94.72</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1.1262469000000001E-2</v>
+      </c>
+      <c r="G25" s="18">
+        <v>20.65</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.22887285600000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="14">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="16">
+        <v>62.78</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1.9352792000000001E-2</v>
+      </c>
+      <c r="G26" s="18">
+        <v>89.53</v>
+      </c>
+      <c r="H26" s="19">
+        <v>1.7398745010000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="14">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="16">
+        <v>131.09</v>
+      </c>
+      <c r="F27" s="17">
+        <v>2.1253405999999999E-2</v>
+      </c>
+      <c r="G27" s="18">
+        <v>21.21</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0.44162609000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="14">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="16">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="F28" s="17">
+        <v>9.7218819999999994E-3</v>
+      </c>
+      <c r="G28" s="18">
+        <v>33.86</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.34323274199999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="20">
+        <v>26</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="22">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="F29" s="23">
+        <v>8.4499873000000003E-2</v>
+      </c>
+      <c r="G29" s="24">
+        <v>-83.56</v>
+      </c>
+      <c r="H29" s="25">
+        <v>-7.0894725599999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="14">
+        <v>27</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="16">
+        <v>40.01</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1.7078682000000001E-2</v>
+      </c>
+      <c r="G30" s="18">
+        <v>15.88</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0.25503115900000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="26">
+        <v>28</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="28">
+        <v>54.26</v>
+      </c>
+      <c r="F31" s="29">
+        <v>3.1478358999999997E-2</v>
+      </c>
+      <c r="G31" s="30">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="H31" s="31">
+        <v>0.62944923200000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ECFEBE-9659-4B07-84C2-D5F1280534CA}">
+  <dimension ref="B1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="35">
+        <v>43983</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.85</v>
+      </c>
+      <c r="F4" s="35">
+        <v>43998</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="35">
+        <v>43983</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="35">
+        <v>43997</v>
+      </c>
+      <c r="G5" s="37">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="33">
+        <v>3</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="35">
+        <v>43985</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="35">
+        <v>44007</v>
+      </c>
+      <c r="G7" s="37">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="33">
+        <v>4</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="35">
+        <v>43985</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="35">
+        <v>44000</v>
+      </c>
+      <c r="G8" s="37">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="33">
+        <v>5</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="35">
+        <v>43986</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.18</v>
+      </c>
+      <c r="F10" s="35">
+        <v>44008</v>
+      </c>
+      <c r="G10" s="37">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="33">
+        <v>6</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="35">
+        <v>43986</v>
+      </c>
+      <c r="E11" s="36">
+        <v>3.63</v>
+      </c>
+      <c r="F11" s="35">
+        <v>44005</v>
+      </c>
+      <c r="G11" s="37">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="33">
+        <v>7</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="35">
+        <v>43986</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.16</v>
+      </c>
+      <c r="F12" s="35">
+        <v>44008</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="33">
+        <v>8</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="35">
+        <v>43986</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1.0225</v>
+      </c>
+      <c r="F13" s="35">
+        <v>44012</v>
+      </c>
+      <c r="G13" s="37">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="33">
+        <v>9</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="35">
+        <v>43991</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.85</v>
+      </c>
+      <c r="F15" s="35">
+        <v>44007</v>
+      </c>
+      <c r="G15" s="37">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="33">
+        <v>10</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="35">
+        <v>43991</v>
+      </c>
+      <c r="E16" s="36">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F16" s="35">
+        <v>43997</v>
+      </c>
+      <c r="G16" s="37">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="33">
+        <v>11</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="35">
+        <v>43991</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.125</v>
+      </c>
+      <c r="F17" s="35">
+        <v>44006</v>
+      </c>
+      <c r="G17" s="37">
+        <v>2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="33">
+        <v>12</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="35">
+        <v>43991</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="35">
+        <v>44013</v>
+      </c>
+      <c r="G18" s="37">
+        <v>5.0099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="33">
+        <v>13</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="35">
+        <v>43991</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.1762</v>
+      </c>
+      <c r="F19" s="35">
+        <v>44013</v>
+      </c>
+      <c r="G19" s="37">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="33">
+        <v>14</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="35">
+        <v>43992</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F21" s="35">
+        <v>44014</v>
+      </c>
+      <c r="G21" s="37">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="33">
+        <v>15</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="35">
+        <v>43993</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.49</v>
+      </c>
+      <c r="F23" s="35">
+        <v>44008</v>
+      </c>
+      <c r="G23" s="37">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="33">
+        <v>16</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="35">
+        <v>43993</v>
+      </c>
+      <c r="E24" s="36">
+        <v>0.68</v>
+      </c>
+      <c r="F24" s="35">
+        <v>44011</v>
+      </c>
+      <c r="G24" s="37">
+        <v>3.61E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="33">
+        <v>17</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="35">
+        <v>43994</v>
+      </c>
+      <c r="E26" s="36">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F26" s="35">
+        <v>44012</v>
+      </c>
+      <c r="G26" s="37">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="33">
+        <v>18</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="35">
+        <v>43994</v>
+      </c>
+      <c r="E27" s="36">
+        <v>0.84</v>
+      </c>
+      <c r="F27" s="35">
+        <v>44022</v>
+      </c>
+      <c r="G27" s="37">
+        <v>8.6599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="33">
+        <v>19</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="35">
+        <v>43994</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0.41</v>
+      </c>
+      <c r="F28" s="35">
+        <v>44013</v>
+      </c>
+      <c r="G28" s="37">
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="33">
+        <v>20</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="35">
+        <v>43997</v>
+      </c>
+      <c r="E30" s="36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F30" s="35">
+        <v>44012</v>
+      </c>
+      <c r="G30" s="37">
+        <v>2.4899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="33">
+        <v>21</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="35">
+        <v>43998</v>
+      </c>
+      <c r="E32" s="36">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F32" s="35">
+        <v>44020</v>
+      </c>
+      <c r="G32" s="37">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="33">
+        <v>22</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="35">
+        <v>44011</v>
+      </c>
+      <c r="E34" s="36">
+        <v>2.0775000000000001</v>
+      </c>
+      <c r="F34" s="35">
+        <v>44027</v>
+      </c>
+      <c r="G34" s="37">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B22:G22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="https://kr.investing.com/equities/harris-corporation-dividends" xr:uid="{2794259C-D9D2-49AB-9802-05A7876A1EB1}"/>
+    <hyperlink ref="C5" r:id="rId2" display="https://kr.investing.com/equities/nextera-energy-inc-dividends" xr:uid="{C74D6CB8-4BB0-4646-A961-72358216ABD7}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://kr.investing.com/equities/qualcomm-inc-dividends" xr:uid="{F25B331D-8B0C-41EC-BE36-6616F0F68E7B}"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://kr.investing.com/equities/home-depot-dividends" xr:uid="{8F4BDC18-5B42-4ECF-ACB6-01E89174768A}"/>
+    <hyperlink ref="C10" r:id="rId5" display="https://kr.investing.com/equities/bank-of-america-dividends" xr:uid="{E54E16B9-408E-48DF-A89E-DF399C738E34}"/>
+    <hyperlink ref="C11" r:id="rId6" display="https://kr.investing.com/equities/blackrock,-inc.-c-dividends" xr:uid="{B614DCC4-031B-41FB-98E7-134CC82A98FE}"/>
+    <hyperlink ref="C12" r:id="rId7" display="https://kr.investing.com/equities/nvidia-corp-dividends" xr:uid="{3D128F9A-2F1E-4C3D-8F69-93B7972E98A7}"/>
+    <hyperlink ref="C13" r:id="rId8" display="https://kr.investing.com/equities/pepsico-dividends" xr:uid="{BACA8CBB-1346-4E35-9173-BE1463AF599A}"/>
+    <hyperlink ref="C15" r:id="rId9" display="https://kr.investing.com/equities/cme-group-inc.-dividends" xr:uid="{0A243198-B2CC-4564-A030-F465DE1C9730}"/>
+    <hyperlink ref="C16" r:id="rId10" display="https://kr.investing.com/equities/mgm-mirage-dividends" xr:uid="{5A369910-FA45-4A14-AFDE-0577F241688C}"/>
+    <hyperlink ref="C17" r:id="rId11" display="https://kr.investing.com/equities/symantec-corp-dividends" xr:uid="{82D4B595-58E7-474E-AB42-64D2BEB7578C}"/>
+    <hyperlink ref="C18" r:id="rId12" display="https://kr.investing.com/equities/hewlett-packard-enterprise-co-dividends" xr:uid="{A06DFACF-7A01-4268-B202-D1EC7A81C034}"/>
+    <hyperlink ref="C19" r:id="rId13" display="https://kr.investing.com/equities/hewlett-pack-dividends" xr:uid="{CEAECA96-01AC-4DFA-94C3-D1938D354D3E}"/>
+    <hyperlink ref="C21" r:id="rId14" display="https://kr.investing.com/equities/best-buy-dividends" xr:uid="{C3EEB61C-B87B-4177-8E87-4A55E19AB68F}"/>
+    <hyperlink ref="C23" r:id="rId15" display="https://kr.investing.com/equities/nasdaq-omx-group-dividends" xr:uid="{EAA5C86F-9AC8-452E-ABCA-598BA175C057}"/>
+    <hyperlink ref="C24" r:id="rId16" display="https://kr.investing.com/equities/gilead-sciences-inc-dividends" xr:uid="{DF6FE1BD-EB9B-4F90-B146-56FAD16B38EE}"/>
+    <hyperlink ref="C26" r:id="rId17" display="https://kr.investing.com/equities/digital-realty-trust-inc-dividends" xr:uid="{A276DA10-2CF5-4612-B62F-AA13899457EF}"/>
+    <hyperlink ref="C27" r:id="rId18" display="https://kr.investing.com/equities/altria-group-dividends" xr:uid="{E2589E70-954F-4FE8-88EB-88F7A961CF3D}"/>
+    <hyperlink ref="C28" r:id="rId19" display="https://kr.investing.com/equities/coca-cola-co-dividends" xr:uid="{6E461436-E9C5-48E3-B7B8-A5278825DB7B}"/>
+    <hyperlink ref="C30" r:id="rId20" display="https://kr.investing.com/equities/allegion-public-dividends" xr:uid="{4694E28B-4259-4B8C-84F0-C3B7F6ED30A4}"/>
+    <hyperlink ref="C32" r:id="rId21" display="https://kr.investing.com/equities/amphenol-corp-dividends" xr:uid="{11E05529-A1A0-4EBB-968E-B8551DF46995}"/>
+    <hyperlink ref="C34" r:id="rId22" display="https://kr.investing.com/equities/essex-property-trust-inc-dividends" xr:uid="{9F91FA36-640C-46E2-A784-8414D3C272AA}"/>
+    <hyperlink ref="C31" r:id="rId23" display="https://kr.investing.com/equities/intercontintlex-dividends" xr:uid="{6233E402-0086-47F6-8558-FD2D3FB82AEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C32CB25-A23D-4225-9256-96B8AAE8439F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/raws/blueladder_stocks.xlsx
+++ b/raws/blueladder_stocks.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06_주식관련\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07_Homepage\master\resumet.github.io\raws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A589BF-ABEB-44ED-B47B-397775A028EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8595637-15F6-4CA6-B62E-4AA57EB4AE71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2" xr2:uid="{2885CAE9-EA0D-4ACC-BD79-EA9006DBB085}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.6.다우존스" sheetId="1" r:id="rId1"/>
     <sheet name="2020.6.배당킹" sheetId="2" r:id="rId2"/>
-    <sheet name="2020.6.배당" sheetId="3" r:id="rId3"/>
-    <sheet name="2020.7.배당" sheetId="4" r:id="rId4"/>
+    <sheet name="2020.6.배당귀족" sheetId="5" r:id="rId3"/>
+    <sheet name="2020.6.배당" sheetId="3" r:id="rId4"/>
+    <sheet name="2020.7.배당" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="246">
   <si>
     <t>번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -516,6 +517,273 @@
   </si>
   <si>
     <t>Essex Property Trust Inc (ESS)</t>
+  </si>
+  <si>
+    <t>OTIS</t>
+  </si>
+  <si>
+    <t>Otis Worldwide Corp.</t>
+  </si>
+  <si>
+    <t>CARR</t>
+  </si>
+  <si>
+    <t>Carrier Global Corp.</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>A. O. Smith Corp.</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>Abbott Laboratories</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>AbbVie, Inc.</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>Aflac, Inc.</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>Air Products &amp; Chemicals, Inc.</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>Archer-Daniels-Midland Co.</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>AT&amp;T, Inc.</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>Automatic Data Processing, Inc.</t>
+  </si>
+  <si>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>Becton, Dickinson &amp; Co.</t>
+  </si>
+  <si>
+    <t>BF.B</t>
+  </si>
+  <si>
+    <t>Brown-Forman Corp.</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>Cardinal Health, Inc.</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Chubb Ltd.</t>
+  </si>
+  <si>
+    <t>CTAS</t>
+  </si>
+  <si>
+    <t>Cintas Corp.</t>
+  </si>
+  <si>
+    <t>CLX</t>
+  </si>
+  <si>
+    <t>The Clorox Co.</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Consolidated Edison, Inc.</t>
+  </si>
+  <si>
+    <t>ECL</t>
+  </si>
+  <si>
+    <t>Ecolab, Inc.</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>Franklin Resources, Inc.</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>General Dynamics Corp.</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>Illinois Tool Works, Inc.</t>
+  </si>
+  <si>
+    <t>KMB</t>
+  </si>
+  <si>
+    <t>Kimberly-Clark Corp.</t>
+  </si>
+  <si>
+    <t>LEG</t>
+  </si>
+  <si>
+    <t>Leggett &amp; Platt, Inc.</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>Linde Plc</t>
+  </si>
+  <si>
+    <t>MKC</t>
+  </si>
+  <si>
+    <t>McCormick &amp; Co., Inc.</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>Medtronic Plc</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>Nucor Corp.</t>
+  </si>
+  <si>
+    <t>PBCT</t>
+  </si>
+  <si>
+    <t>People's United Financial, Inc.</t>
+  </si>
+  <si>
+    <t>PNR</t>
+  </si>
+  <si>
+    <t>Pentair Plc</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>PepsiCo, Inc.</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>PPG Industries, Inc.</t>
+  </si>
+  <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>Roper Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>SPGI</t>
+  </si>
+  <si>
+    <t>S&amp;P Global, Inc.</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>The Sherwin-Williams Co.</t>
+  </si>
+  <si>
+    <t>TROW</t>
+  </si>
+  <si>
+    <t>T. Rowe Price Group, Inc.</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>Target Corp.</t>
+  </si>
+  <si>
+    <t>VFC</t>
+  </si>
+  <si>
+    <t>VF Corp.</t>
+  </si>
+  <si>
+    <t>GWW</t>
+  </si>
+  <si>
+    <t>W.W. Grainger, Inc.</t>
+  </si>
+  <si>
+    <t>AMCR</t>
+  </si>
+  <si>
+    <t>Amcor Plc</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>Atmos Energy Corp.</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Realty Income Corp.</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>Essex Property Trust, Inc.</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Albemarle Corp.</t>
+  </si>
+  <si>
+    <t>EXPD</t>
+  </si>
+  <si>
+    <t>Expeditors International of Washington, Inc.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -526,7 +794,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,8 +878,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,18 +908,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +948,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,8 +958,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,67 +1021,44 @@
     <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2058,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3848DF-75C9-4FB6-8E5F-AD590273112F}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2078,7 +2319,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="10"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="25" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2198,25 +2439,25 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="20">
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="16">
         <v>72.790000000000006</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="17">
         <v>2.3666210999999999E-2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <v>24.77</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="19">
         <v>0.58881590100000003</v>
       </c>
     </row>
@@ -2382,48 +2623,48 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="20">
+      <c r="B16" s="14">
         <v>13</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="16">
         <v>142.15</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="17">
         <v>2.6975224999999999E-2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="18">
         <v>21.86</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="19">
         <v>0.584345687</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
+      <c r="B17" s="14">
         <v>14</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="16">
         <v>45.6</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="17">
         <v>3.5353534999999998E-2</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="18">
         <v>19.48</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="19">
         <v>0.68791659500000002</v>
       </c>
     </row>
@@ -2451,48 +2692,48 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
+      <c r="B19" s="14">
         <v>16</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="16">
         <v>126.05</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="17">
         <v>1.7750524E-2</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="18">
         <v>21.26</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="19">
         <v>0.37100745400000001</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="20">
+      <c r="B20" s="14">
         <v>17</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="16">
         <v>154.87</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="17">
         <v>3.7997112E-2</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="18">
         <v>17.97</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="19">
         <v>0.67191199000000001</v>
       </c>
     </row>
@@ -2543,25 +2784,25 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="20">
+      <c r="B23" s="14">
         <v>20</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="16">
         <v>115.62</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="17">
         <v>2.5663169E-2</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="18">
         <v>60.5</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="19">
         <v>1.5612768180000001</v>
       </c>
     </row>
@@ -2681,25 +2922,25 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="20">
+      <c r="B29" s="14">
         <v>26</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="16">
         <v>39.130000000000003</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="17">
         <v>8.4499873000000003E-2</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="18">
         <v>-83.56</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="19">
         <v>-7.0894725599999999</v>
       </c>
     </row>
@@ -2727,25 +2968,25 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="26">
+      <c r="B31" s="14">
         <v>28</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="16">
         <v>54.26</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="17">
         <v>3.1478358999999997E-2</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="18">
         <v>20.329999999999998</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="19">
         <v>0.62944923200000003</v>
       </c>
     </row>
@@ -2756,10 +2997,1566 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA810A89-228E-47B3-8773-F9F3565AC398}">
+  <dimension ref="B2:H68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="16">
+        <v>56.04</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3.5555555555550002E-3</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="16">
+        <v>21.54</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="16">
+        <v>154.87</v>
+      </c>
+      <c r="F6" s="17">
+        <v>3.7997112481952998E-2</v>
+      </c>
+      <c r="G6" s="18">
+        <v>17.97</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.67191198997354129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="16">
+        <v>46.95</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1.9649722340879E-2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>23.18</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.45429855315786871</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="16">
+        <v>89.02</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1.5493278651173E-2</v>
+      </c>
+      <c r="G8" s="18">
+        <v>44.11</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.67393458870168488</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="16">
+        <v>92.46</v>
+      </c>
+      <c r="F9" s="17">
+        <v>4.8775200520268007E-2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.79381879762912788</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="16">
+        <v>36.64</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3.0566461020751001E-2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>9.17</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.27274547092383139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="16">
+        <v>235.04</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2.0679594988845001E-2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>26.51</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.54354567700756684</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="16">
+        <v>39.43</v>
+      </c>
+      <c r="F12" s="17">
+        <v>3.6528497409325997E-2</v>
+      </c>
+      <c r="G12" s="18">
+        <v>14.39</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.51469246212812558</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="16">
+        <v>30.5</v>
+      </c>
+      <c r="F13" s="17">
+        <v>6.8279748094133008E-2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>15.38</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1.038620550569729</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="16">
+        <v>146.93</v>
+      </c>
+      <c r="F14" s="17">
+        <v>2.3777886565494E-2</v>
+      </c>
+      <c r="G14" s="18">
+        <v>25.07</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.57970026086511739</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="14">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="16">
+        <v>230.88</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1.3554020591685E-2</v>
+      </c>
+      <c r="G15" s="18">
+        <v>68.75</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.92904147931989411</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="14">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="16">
+        <v>65.25</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1.0375000000000001E-2</v>
+      </c>
+      <c r="G16" s="18">
+        <v>37.69</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.39316041823118247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="14">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="16">
+        <v>52.89</v>
+      </c>
+      <c r="F17" s="17">
+        <v>3.6662221375500001E-2</v>
+      </c>
+      <c r="G17" s="18">
+        <v>-3.77</v>
+      </c>
+      <c r="H17" s="19">
+        <v>-0.13720918625626549</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16">
+        <v>123.15</v>
+      </c>
+      <c r="F18" s="17">
+        <v>3.2496914849856E-2</v>
+      </c>
+      <c r="G18" s="18">
+        <v>12.93</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.41456759026028539</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="14">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="16">
+        <v>125.69</v>
+      </c>
+      <c r="F19" s="17">
+        <v>2.4703557312252E-2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>15.58</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.37190390003223173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="14">
+        <v>17</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16">
+        <v>92.39</v>
+      </c>
+      <c r="F20" s="17">
+        <v>5.4380664652567003E-2</v>
+      </c>
+      <c r="G20" s="18">
+        <v>45.01</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2.3676133872460658</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="14">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="16">
+        <v>61.11</v>
+      </c>
+      <c r="F21" s="17">
+        <v>3.8868053187862003E-2</v>
+      </c>
+      <c r="G21" s="18">
+        <v>143.97</v>
+      </c>
+      <c r="H21" s="19">
+        <v>5.378627034677991</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="14">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="16">
+        <v>266.19499999999999</v>
+      </c>
+      <c r="F22" s="17">
+        <v>7.7651515151510014E-3</v>
+      </c>
+      <c r="G22" s="18">
+        <v>29.18</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0.2247018589968432</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="14">
+        <v>20</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="16">
+        <v>205.12</v>
+      </c>
+      <c r="F23" s="17">
+        <v>2.0689991704484E-2</v>
+      </c>
+      <c r="G23" s="18">
+        <v>29.69</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0.61371893409758715</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="14">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="16">
+        <v>45.6</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3.5353535353535012E-2</v>
+      </c>
+      <c r="G24" s="18">
+        <v>19.48</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0.6879165954537686</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="16">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="F25" s="17">
+        <v>2.3666210670313999E-2</v>
+      </c>
+      <c r="G25" s="18">
+        <v>24.77</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.58881590143289886</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="14">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="16">
+        <v>75.38</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4.0310700415160002E-2</v>
+      </c>
+      <c r="G26" s="18">
+        <v>19.34</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0.77215124929454615</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="14">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="16">
+        <v>96.61</v>
+      </c>
+      <c r="F27" s="17">
+        <v>2.0270270270270001E-2</v>
+      </c>
+      <c r="G27" s="18">
+        <v>18.72</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0.37780447165497733</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="14">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="16">
+        <v>204.06</v>
+      </c>
+      <c r="F28" s="17">
+        <v>9.1833711859380003E-3</v>
+      </c>
+      <c r="G28" s="18">
+        <v>38.04</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.34673675968905537</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="14">
+        <v>26</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="16">
+        <v>61.35</v>
+      </c>
+      <c r="F29" s="17">
+        <v>3.2748924909030003E-2</v>
+      </c>
+      <c r="G29" s="18">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0.56001810159520304</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="14">
+        <v>27</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="16">
+        <v>47.17</v>
+      </c>
+      <c r="F30" s="17">
+        <v>7.5357297531398013E-2</v>
+      </c>
+      <c r="G30" s="18">
+        <v>17.72</v>
+      </c>
+      <c r="H30" s="19">
+        <v>1.3071895424836599</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="14">
+        <v>28</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="16">
+        <v>90.47</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4.7575584711921998E-2</v>
+      </c>
+      <c r="G31" s="18">
+        <v>20.02</v>
+      </c>
+      <c r="H31" s="19">
+        <v>0.92254596137253597</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="14">
+        <v>29</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="16">
+        <v>21.79</v>
+      </c>
+      <c r="F32" s="17">
+        <v>5.0839328537170013E-2</v>
+      </c>
+      <c r="G32" s="18">
+        <v>11.15</v>
+      </c>
+      <c r="H32" s="19">
+        <v>0.54261581776298951</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="14">
+        <v>30</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="16">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="F33" s="17">
+        <v>2.8004039044091999E-2</v>
+      </c>
+      <c r="G33" s="18">
+        <v>12.49</v>
+      </c>
+      <c r="H33" s="19">
+        <v>0.34828036569438398</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="14">
+        <v>31</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="16">
+        <v>85.59</v>
+      </c>
+      <c r="F34" s="17">
+        <v>3.6816604857039997E-2</v>
+      </c>
+      <c r="G34" s="18">
+        <v>20.87</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0.7502803647179288</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="14">
+        <v>32</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="16">
+        <v>46.67</v>
+      </c>
+      <c r="F35" s="17">
+        <v>1.8894107600340999E-2</v>
+      </c>
+      <c r="G35" s="18">
+        <v>27</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0.51191577973160574</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="14">
+        <v>33</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="16">
+        <v>164.94</v>
+      </c>
+      <c r="F36" s="17">
+        <v>2.5488890234304E-2</v>
+      </c>
+      <c r="G36" s="18">
+        <v>21.31</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0.54394873186299209</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="14">
+        <v>34</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="16">
+        <v>142.15</v>
+      </c>
+      <c r="F37" s="17">
+        <v>2.6975225385106001E-2</v>
+      </c>
+      <c r="G37" s="18">
+        <v>21.86</v>
+      </c>
+      <c r="H37" s="19">
+        <v>0.58434568660618169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="14">
+        <v>35</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="16">
+        <v>135.94</v>
+      </c>
+      <c r="F38" s="17">
+        <v>3.0371614222091999E-2</v>
+      </c>
+      <c r="G38" s="18">
+        <v>19.72</v>
+      </c>
+      <c r="H38" s="19">
+        <v>0.60334450100799142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="14">
+        <v>36</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="16">
+        <v>32.82</v>
+      </c>
+      <c r="F39" s="17">
+        <v>4.8163756773027998E-2</v>
+      </c>
+      <c r="G39" s="18">
+        <v>13.92</v>
+      </c>
+      <c r="H39" s="19">
+        <v>0.67859869369751469</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B40" s="14">
+        <v>37</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="16">
+        <v>201.94</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1.8020189844808999E-2</v>
+      </c>
+      <c r="G40" s="18">
+        <v>46.38</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0.82397519807096109</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="14">
+        <v>38</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="16">
+        <v>126.05</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1.7750524447312999E-2</v>
+      </c>
+      <c r="G41" s="18">
+        <v>21.26</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0.37100745387702788</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="14">
+        <v>39</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="16">
+        <v>166.54</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1.3882268827454001E-2</v>
+      </c>
+      <c r="G42" s="18">
+        <v>31.62</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0.44239386344649512</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="14">
+        <v>40</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="16">
+        <v>189.17</v>
+      </c>
+      <c r="F43" s="17">
+        <v>2.5705295717561E-2</v>
+      </c>
+      <c r="G43" s="18">
+        <v>24.56</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0.62588461388632799</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="14">
+        <v>41</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="16">
+        <v>93.21</v>
+      </c>
+      <c r="F44" s="17">
+        <v>2.3770221195113E-2</v>
+      </c>
+      <c r="G44" s="18">
+        <v>26.09</v>
+      </c>
+      <c r="H44" s="19">
+        <v>0.60468631897203329</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="14">
+        <v>42</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="16">
+        <v>41.2</v>
+      </c>
+      <c r="F45" s="17">
+        <v>4.0468986384266013E-2</v>
+      </c>
+      <c r="G45" s="18">
+        <v>16.02</v>
+      </c>
+      <c r="H45" s="19">
+        <v>0.62390670553935867</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="14">
+        <v>43</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="16">
+        <v>12.2</v>
+      </c>
+      <c r="F46" s="17">
+        <v>6.0891938250427997E-2</v>
+      </c>
+      <c r="G46" s="18">
+        <v>9.57</v>
+      </c>
+      <c r="H46" s="19">
+        <v>0.55721236854496936</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="14">
+        <v>44</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="F47" s="17">
+        <v>1.9804666304937001E-2</v>
+      </c>
+      <c r="G47" s="18">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="H47" s="19">
+        <v>0.32634449461308063</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="14">
+        <v>45</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="16">
+        <v>129.11000000000001</v>
+      </c>
+      <c r="F48" s="17">
+        <v>2.9881101376719999E-2</v>
+      </c>
+      <c r="G48" s="18">
+        <v>24.88</v>
+      </c>
+      <c r="H48" s="19">
+        <v>0.73668376595826757</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="14">
+        <v>46</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="16">
+        <v>101.63</v>
+      </c>
+      <c r="F49" s="17">
+        <v>2.0188830855764998E-2</v>
+      </c>
+      <c r="G49" s="18">
+        <v>20.51</v>
+      </c>
+      <c r="H49" s="19">
+        <v>0.40560174348212108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="14">
+        <v>47</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="16">
+        <v>115.62</v>
+      </c>
+      <c r="F50" s="17">
+        <v>2.5663168759675999E-2</v>
+      </c>
+      <c r="G50" s="18">
+        <v>60.5</v>
+      </c>
+      <c r="H50" s="19">
+        <v>1.561276818419675</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B51" s="14">
+        <v>48</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="16">
+        <v>389.81</v>
+      </c>
+      <c r="F51" s="17">
+        <v>4.9706856997189996E-3</v>
+      </c>
+      <c r="G51" s="18">
+        <v>24.76</v>
+      </c>
+      <c r="H51" s="19">
+        <v>0.1238614276458707</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="14">
+        <v>49</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="16">
+        <v>316.91000000000003</v>
+      </c>
+      <c r="F52" s="17">
+        <v>7.751685503045001E-3</v>
+      </c>
+      <c r="G52" s="18">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="H52" s="19">
+        <v>0.24713920790845459</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B53" s="14">
+        <v>50</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="16">
+        <v>547.62</v>
+      </c>
+      <c r="F53" s="17">
+        <v>8.6579294186550013E-3</v>
+      </c>
+      <c r="G53" s="18">
+        <v>31.02</v>
+      </c>
+      <c r="H53" s="19">
+        <v>0.26792491305185168</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B54" s="14">
+        <v>51</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="16">
+        <v>131.09</v>
+      </c>
+      <c r="F54" s="17">
+        <v>2.1253405994550001E-2</v>
+      </c>
+      <c r="G54" s="18">
+        <v>21.21</v>
+      </c>
+      <c r="H54" s="19">
+        <v>0.44162608991054242</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="14">
+        <v>52</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="16">
+        <v>54.26</v>
+      </c>
+      <c r="F55" s="17">
+        <v>3.1478358628441998E-2</v>
+      </c>
+      <c r="G55" s="18">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="H55" s="19">
+        <v>0.62944923192206825</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B56" s="14">
+        <v>53</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="16">
+        <v>120.95</v>
+      </c>
+      <c r="F56" s="17">
+        <v>2.6695768972464E-2</v>
+      </c>
+      <c r="G56" s="18">
+        <v>14.87</v>
+      </c>
+      <c r="H56" s="19">
+        <v>0.39091311402861778</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B57" s="14">
+        <v>54</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="16">
+        <v>116.9</v>
+      </c>
+      <c r="F57" s="17">
+        <v>2.2370985509701999E-2</v>
+      </c>
+      <c r="G57" s="18">
+        <v>21.46</v>
+      </c>
+      <c r="H57" s="19">
+        <v>0.48467935890139352</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B58" s="14">
+        <v>55</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="16">
+        <v>65.37</v>
+      </c>
+      <c r="F58" s="17">
+        <v>4.6778042959427002E-2</v>
+      </c>
+      <c r="G58" s="18">
+        <v>13.62</v>
+      </c>
+      <c r="H58" s="19">
+        <v>0.61235966757618043</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="14">
+        <v>56</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="16">
+        <v>61.25</v>
+      </c>
+      <c r="F59" s="17">
+        <v>3.1772575250836002E-2</v>
+      </c>
+      <c r="G59" s="18">
+        <v>36.17</v>
+      </c>
+      <c r="H59" s="19">
+        <v>1.1218705715635331</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="14">
+        <v>57</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" s="16">
+        <v>303.75</v>
+      </c>
+      <c r="F60" s="17">
+        <v>1.8827221023729999E-2</v>
+      </c>
+      <c r="G60" s="18">
+        <v>21.45</v>
+      </c>
+      <c r="H60" s="19">
+        <v>0.4067164706048495</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B61" s="14">
+        <v>58</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="16">
+        <v>117.74</v>
+      </c>
+      <c r="F61" s="17">
+        <v>1.7736697476892001E-2</v>
+      </c>
+      <c r="G61" s="18">
+        <v>22.25</v>
+      </c>
+      <c r="H61" s="19">
+        <v>0.40253997051819929</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B62" s="14">
+        <v>59</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="16">
+        <v>41.405000000000001</v>
+      </c>
+      <c r="F62" s="17">
+        <v>4.4478527607361013E-2</v>
+      </c>
+      <c r="G62" s="18">
+        <v>10.62</v>
+      </c>
+      <c r="H62" s="19">
+        <v>0.46474358974358981</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B63" s="14">
+        <v>60</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="16">
+        <v>9.81</v>
+      </c>
+      <c r="F63" s="17">
+        <v>5.0598476605005001E-2</v>
+      </c>
+      <c r="G63" s="18">
+        <v>31.21</v>
+      </c>
+      <c r="H63" s="19">
+        <v>1.479478205536112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B64" s="14">
+        <v>61</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="16">
+        <v>100.43</v>
+      </c>
+      <c r="F64" s="17">
+        <v>2.2161781001309E-2</v>
+      </c>
+      <c r="G64" s="18">
+        <v>21.87</v>
+      </c>
+      <c r="H64" s="19">
+        <v>0.47905234735650221</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B65" s="14">
+        <v>62</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" s="16">
+        <v>60.43</v>
+      </c>
+      <c r="F65" s="17">
+        <v>4.7304768486523013E-2</v>
+      </c>
+      <c r="G65" s="18">
+        <v>41.73</v>
+      </c>
+      <c r="H65" s="19">
+        <v>1.8907534010082181</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B66" s="14">
+        <v>63</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="16">
+        <v>249.68</v>
+      </c>
+      <c r="F66" s="17">
+        <v>3.2213824210654003E-2</v>
+      </c>
+      <c r="G66" s="18">
+        <v>25.92</v>
+      </c>
+      <c r="H66" s="19">
+        <v>0.82308051705341845</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B67" s="14">
+        <v>64</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="16">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="F67" s="17">
+        <v>1.9961084272677999E-2</v>
+      </c>
+      <c r="G67" s="18">
+        <v>16.18</v>
+      </c>
+      <c r="H67" s="19">
+        <v>0.31120548976944651</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B68" s="14">
+        <v>65</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="16">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F68" s="17">
+        <v>1.3598041881968E-2</v>
+      </c>
+      <c r="G68" s="18">
+        <v>21.85</v>
+      </c>
+      <c r="H68" s="19">
+        <v>0.29700029700029701</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ECFEBE-9659-4B07-84C2-D5F1280534CA}">
   <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -2775,542 +4572,542 @@
   <sheetData>
     <row r="1" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="33">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="22">
         <v>43983</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="23">
         <v>0.85</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="22">
         <v>43998</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="24">
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="33">
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="22">
         <v>43983</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="23">
         <v>1.4</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="22">
         <v>43997</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="24">
         <v>2.23E-2</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="33">
+      <c r="B7" s="20">
         <v>3</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="22">
         <v>43985</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="23">
         <v>0.65</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="22">
         <v>44007</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="24">
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="33">
+      <c r="B8" s="20">
         <v>4</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="22">
         <v>43985</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="23">
         <v>1.5</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="22">
         <v>44000</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="24">
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="33">
+      <c r="B10" s="20">
         <v>5</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="22">
         <v>43986</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="23">
         <v>0.18</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="22">
         <v>44008</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="24">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="33">
+      <c r="B11" s="20">
         <v>6</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="22">
         <v>43986</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="23">
         <v>3.63</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="22">
         <v>44005</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="24">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="33">
+      <c r="B12" s="20">
         <v>7</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="22">
         <v>43986</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="23">
         <v>0.16</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="22">
         <v>44008</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="24">
         <v>1.9E-3</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="33">
+      <c r="B13" s="20">
         <v>8</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="22">
         <v>43986</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="23">
         <v>1.0225</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="22">
         <v>44012</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="24">
         <v>3.09E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="33">
+      <c r="B15" s="20">
         <v>9</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="22">
         <v>43991</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="23">
         <v>0.85</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="22">
         <v>44007</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="24">
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="33">
+      <c r="B16" s="20">
         <v>10</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="22">
         <v>43991</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="23">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="22">
         <v>43997</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="24">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="33">
+      <c r="B17" s="20">
         <v>11</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="22">
         <v>43991</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="23">
         <v>0.125</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="22">
         <v>44006</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="24">
         <v>2.3900000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="33">
+      <c r="B18" s="20">
         <v>12</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="22">
         <v>43991</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="23">
         <v>0.12</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="22">
         <v>44013</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="24">
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="33">
+      <c r="B19" s="20">
         <v>13</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="22">
         <v>43991</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="23">
         <v>0.1762</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="22">
         <v>44013</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="24">
         <v>4.7E-2</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="33">
+      <c r="B21" s="20">
         <v>14</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="22">
         <v>43992</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="22">
         <v>44014</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="24">
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="33">
+      <c r="B23" s="20">
         <v>15</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="22">
         <v>43993</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="23">
         <v>0.49</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="22">
         <v>44008</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="24">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="33">
+      <c r="B24" s="20">
         <v>16</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="22">
         <v>43993</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="23">
         <v>0.68</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="22">
         <v>44011</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="24">
         <v>3.61E-2</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="33">
+      <c r="B26" s="20">
         <v>17</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="22">
         <v>43994</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="22">
         <v>44012</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="24">
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="33">
+      <c r="B27" s="20">
         <v>18</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="22">
         <v>43994</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="23">
         <v>0.84</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="22">
         <v>44022</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="24">
         <v>8.6599999999999996E-2</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="33">
+      <c r="B28" s="20">
         <v>19</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="22">
         <v>43994</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="23">
         <v>0.41</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="22">
         <v>44013</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="24">
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="33">
+      <c r="B30" s="20">
         <v>20</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="22">
         <v>43997</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="22">
         <v>44012</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="24">
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="33">
+      <c r="B32" s="20">
         <v>21</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="22">
         <v>43998</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="23">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="22">
         <v>44020</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="24">
         <v>1.72E-2</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="33">
+      <c r="B34" s="20">
         <v>22</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="22">
         <v>44011</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="23">
         <v>2.0775000000000001</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="22">
         <v>44027</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="24">
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
@@ -3357,7 +5154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C32CB25-A23D-4225-9256-96B8AAE8439F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/raws/blueladder_stocks.xlsx
+++ b/raws/blueladder_stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07_Homepage\master\resumet.github.io\raws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8595637-15F6-4CA6-B62E-4AA57EB4AE71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0BA3806-7F3E-44E9-9F0D-97768AE949AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2" xr2:uid="{2885CAE9-EA0D-4ACC-BD79-EA9006DBB085}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="5" xr2:uid="{2885CAE9-EA0D-4ACC-BD79-EA9006DBB085}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.6.다우존스" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2020.6.배당귀족" sheetId="5" r:id="rId3"/>
     <sheet name="2020.6.배당" sheetId="3" r:id="rId4"/>
     <sheet name="2020.7.배당" sheetId="4" r:id="rId5"/>
+    <sheet name="2020.빌리어네어-억만장자" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="401">
   <si>
     <t>번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -784,6 +785,472 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Jeff Bezos</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Bernard Arnault &amp; family</t>
+  </si>
+  <si>
+    <t>LVMH</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>Larry Ellison</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>Steve Ballmer</t>
+  </si>
+  <si>
+    <t>Larry Page</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Amancio Ortega</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sergey Brin</t>
+  </si>
+  <si>
+    <t>diversified</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>L'Oreal</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>e-commerce</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>$26.8 B</t>
+  </si>
+  <si>
+    <t>casinos</t>
+  </si>
+  <si>
+    <t>$24.7 B</t>
+  </si>
+  <si>
+    <t>$24.5 B</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>metals</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>sensors</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>$156.6 B</t>
+  </si>
+  <si>
+    <t>$109.8 B</t>
+  </si>
+  <si>
+    <t>$103.1 B</t>
+  </si>
+  <si>
+    <t>$87.3 B</t>
+  </si>
+  <si>
+    <t>$72.7 B</t>
+  </si>
+  <si>
+    <t>$69.2 B</t>
+  </si>
+  <si>
+    <t>$68.5 B</t>
+  </si>
+  <si>
+    <t>$66.0 B</t>
+  </si>
+  <si>
+    <t>$65.2 B</t>
+  </si>
+  <si>
+    <t>$63.5 B</t>
+  </si>
+  <si>
+    <t>Francoise Bettencourt Meyers &amp; family</t>
+  </si>
+  <si>
+    <t>$60.4 B</t>
+  </si>
+  <si>
+    <t>Michael Bloomberg</t>
+  </si>
+  <si>
+    <t>$60.1 B</t>
+  </si>
+  <si>
+    <t>Mukesh Ambani</t>
+  </si>
+  <si>
+    <t>$59.4 B</t>
+  </si>
+  <si>
+    <t>Carlos Slim Helu &amp; family</t>
+  </si>
+  <si>
+    <t>$54.5 B</t>
+  </si>
+  <si>
+    <t>Jim Walton</t>
+  </si>
+  <si>
+    <t>$53.4 B</t>
+  </si>
+  <si>
+    <t>Alice Walton</t>
+  </si>
+  <si>
+    <t>$53.2 B</t>
+  </si>
+  <si>
+    <t>Rob Walton</t>
+  </si>
+  <si>
+    <t>$53.0 B</t>
+  </si>
+  <si>
+    <t>MacKenzie Bezos</t>
+  </si>
+  <si>
+    <t>$51.2 B</t>
+  </si>
+  <si>
+    <t>Ma Huateng</t>
+  </si>
+  <si>
+    <t>$50.2 B</t>
+  </si>
+  <si>
+    <t>Charles Koch</t>
+  </si>
+  <si>
+    <t>$48.0 B</t>
+  </si>
+  <si>
+    <t>Julia Koch &amp; family</t>
+  </si>
+  <si>
+    <t>Jack Ma</t>
+  </si>
+  <si>
+    <t>$44.3 B</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>$42.3 B</t>
+  </si>
+  <si>
+    <t>Colin Zheng Huang</t>
+  </si>
+  <si>
+    <t>$42.0 B</t>
+  </si>
+  <si>
+    <t>Phil Knight &amp; family</t>
+  </si>
+  <si>
+    <t>$39.7 B</t>
+  </si>
+  <si>
+    <t>Beate Heister &amp; Karl Albrecht Jr.</t>
+  </si>
+  <si>
+    <t>$37.8 B</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>François Pinault &amp; family</t>
+  </si>
+  <si>
+    <t>$37.6 B</t>
+  </si>
+  <si>
+    <t>David Thomson &amp; family</t>
+  </si>
+  <si>
+    <t>$35.5 B</t>
+  </si>
+  <si>
+    <t>Sheldon Adelson</t>
+  </si>
+  <si>
+    <t>$32.3 B</t>
+  </si>
+  <si>
+    <t>Hui Ka Yan</t>
+  </si>
+  <si>
+    <t>$31.9 B</t>
+  </si>
+  <si>
+    <t>Dieter Schwarz</t>
+  </si>
+  <si>
+    <t>$30.8 B</t>
+  </si>
+  <si>
+    <t>Qin Yinglin &amp; family</t>
+  </si>
+  <si>
+    <t>$30.7 B</t>
+  </si>
+  <si>
+    <t>Michael Dell</t>
+  </si>
+  <si>
+    <t>$30.4 B</t>
+  </si>
+  <si>
+    <t>Tadashi Yanai &amp; family</t>
+  </si>
+  <si>
+    <t>$29.7 B</t>
+  </si>
+  <si>
+    <t>John Mars</t>
+  </si>
+  <si>
+    <t>$27.8 B</t>
+  </si>
+  <si>
+    <t>Jacqueline Mars</t>
+  </si>
+  <si>
+    <t>Len Blavatnik</t>
+  </si>
+  <si>
+    <t>Lee Shau Kee</t>
+  </si>
+  <si>
+    <t>$27.2 B</t>
+  </si>
+  <si>
+    <t>Li Ka-shing</t>
+  </si>
+  <si>
+    <t>Giovanni Ferrero</t>
+  </si>
+  <si>
+    <t>$25.5 B</t>
+  </si>
+  <si>
+    <t>William Lei Ding</t>
+  </si>
+  <si>
+    <t>$25.4 B</t>
+  </si>
+  <si>
+    <t>Dietrich Mateschitz</t>
+  </si>
+  <si>
+    <t>$25.2 B</t>
+  </si>
+  <si>
+    <t>Yang Huiyan &amp; family</t>
+  </si>
+  <si>
+    <t>$25.1 B</t>
+  </si>
+  <si>
+    <t>He Xiangjian</t>
+  </si>
+  <si>
+    <t>$24.9 B</t>
+  </si>
+  <si>
+    <t>Alain Wertheimer</t>
+  </si>
+  <si>
+    <t>Gerard Wertheimer</t>
+  </si>
+  <si>
+    <t>Vladimir Potanin</t>
+  </si>
+  <si>
+    <t>Masayoshi Son</t>
+  </si>
+  <si>
+    <t>$24.4 B</t>
+  </si>
+  <si>
+    <t>Takemitsu Takizaki</t>
+  </si>
+  <si>
+    <t>$23.7 B</t>
+  </si>
+  <si>
+    <t>Leonid Mikhelson</t>
+  </si>
+  <si>
+    <t>$22.7 B</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>재산</t>
+  </si>
+  <si>
+    <t>나이</t>
+  </si>
+  <si>
+    <t>소속</t>
+  </si>
+  <si>
+    <t>국가</t>
+  </si>
+  <si>
+    <t>UnitedStates</t>
+  </si>
+  <si>
+    <t>BerkshireHathaway</t>
+  </si>
+  <si>
+    <t>BloombergLP</t>
+  </si>
+  <si>
+    <t>petrochemicals,oil &amp; gas</t>
+  </si>
+  <si>
+    <t>internetmedia</t>
+  </si>
+  <si>
+    <t>KochIndustries</t>
+  </si>
+  <si>
+    <t>TeslaMotors, SpaceX</t>
+  </si>
+  <si>
+    <t>luxurygoods</t>
+  </si>
+  <si>
+    <t>realestate</t>
+  </si>
+  <si>
+    <t>pigbreeding</t>
+  </si>
+  <si>
+    <t>Dellcomputers</t>
+  </si>
+  <si>
+    <t>fashionretail</t>
+  </si>
+  <si>
+    <t>candy,pet food</t>
+  </si>
+  <si>
+    <t>Nutella,chocolates</t>
+  </si>
+  <si>
+    <t>onlinegames</t>
+  </si>
+  <si>
+    <t>homeappliances</t>
+  </si>
+  <si>
+    <t>internet,telecom</t>
+  </si>
+  <si>
+    <t>gas,chemicals</t>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -794,7 +1261,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,8 +1352,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212529"/>
+      <name val="KoPubWorld바탕체 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="KoPubWorld바탕체 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,6 +1402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +1448,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,9 +1527,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1538,24 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3000,7 +3503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA810A89-228E-47B3-8773-F9F3565AC398}">
   <dimension ref="B2:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -3010,9 +3513,9 @@
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="40.625" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="26" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3022,8 +3525,8 @@
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="29" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4572,14 +5075,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B4" s="20">
@@ -4622,14 +5125,14 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B7" s="20">
@@ -4672,14 +5175,14 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="20">
@@ -4762,14 +5265,14 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="20">
@@ -4872,14 +5375,14 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B21" s="20">
@@ -4902,14 +5405,14 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B23" s="20">
@@ -4952,14 +5455,14 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="20">
@@ -5022,14 +5525,14 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="20">
@@ -5052,14 +5555,14 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B32" s="20">
@@ -5082,14 +5585,14 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B34" s="20">
@@ -5166,5 +5669,1101 @@
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B3D177-4308-4867-BA6A-9B995F3F8242}">
+  <dimension ref="B2:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.375" style="35"/>
+    <col min="3" max="3" width="58.125" customWidth="1"/>
+    <col min="6" max="6" width="34.75" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="25.5" x14ac:dyDescent="0.6">
+      <c r="B2" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="32">
+        <v>56</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="32">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="32">
+        <v>65</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="32">
+        <v>3</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="32">
+        <v>71</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="32">
+        <v>4</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="32">
+        <v>36</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="32">
+        <v>5</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="32">
+        <v>90</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="32">
+        <v>6</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="32">
+        <v>76</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="32">
+        <v>7</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="32">
+        <v>64</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="32">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="32">
+        <v>84</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="32">
+        <v>9</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="32">
+        <v>47</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="32">
+        <v>10</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="32">
+        <v>47</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="32">
+        <v>11</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="32">
+        <v>67</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="32">
+        <v>12</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="32">
+        <v>78</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="32">
+        <v>13</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="32">
+        <v>63</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="32">
+        <v>14</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="32">
+        <v>80</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="32">
+        <v>15</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="32">
+        <v>72</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="32">
+        <v>16</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="32">
+        <v>71</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="32">
+        <v>17</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="32">
+        <v>76</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="32">
+        <v>18</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="32">
+        <v>50</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="32">
+        <v>19</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="32">
+        <v>49</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="32">
+        <v>20</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" s="32">
+        <v>85</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="32">
+        <v>21</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E23" s="32">
+        <v>58</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="32">
+        <v>22</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" s="32">
+        <v>56</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="32">
+        <v>23</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="32">
+        <v>49</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="32">
+        <v>24</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" s="32">
+        <v>40</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="32">
+        <v>25</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="32">
+        <v>82</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="32">
+        <v>26</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="32">
+        <v>27</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" s="32">
+        <v>84</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="32">
+        <v>28</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="32">
+        <v>63</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="32">
+        <v>29</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" s="32">
+        <v>87</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="E32" s="32">
+        <v>62</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="32">
+        <v>31</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E33" s="32">
+        <v>81</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="32">
+        <v>32</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="E34" s="32">
+        <v>55</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="32">
+        <v>33</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E35" s="32">
+        <v>55</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="32">
+        <v>34</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="32">
+        <v>71</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="32">
+        <v>35</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E37" s="32">
+        <v>85</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="32">
+        <v>36</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E38" s="32">
+        <v>81</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="32">
+        <v>37</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="32">
+        <v>63</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="32">
+        <v>38</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40" s="32">
+        <v>92</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="32">
+        <v>39</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="32">
+        <v>92</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="32">
+        <v>40</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="E42" s="32">
+        <v>56</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="32">
+        <v>41</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="E43" s="32">
+        <v>49</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="32">
+        <v>42</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" s="32">
+        <v>76</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="32">
+        <v>43</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="E45" s="32">
+        <v>39</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="32">
+        <v>44</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" s="32">
+        <v>78</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="32">
+        <v>45</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="32">
+        <v>72</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="32">
+        <v>46</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="32">
+        <v>69</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="32">
+        <v>47</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E49" s="32">
+        <v>59</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="32">
+        <v>48</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E50" s="32">
+        <v>63</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="32">
+        <v>49</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E51" s="32">
+        <v>75</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B52" s="32">
+        <v>50</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="E52" s="32">
+        <v>65</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://www.forbes.com/profile/jeff-bezos/?list=rtb/" xr:uid="{ED49946A-F8E5-418B-9B8E-BDA174C31C3C}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.forbes.com/profile/bill-gates/?list=rtb/" xr:uid="{F41FC984-0168-4A60-830E-A23B672C5159}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://www.forbes.com/profile/bernard-arnault/?list=rtb/" xr:uid="{1A1E2316-78A8-426A-BF31-55436D4694E6}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://www.forbes.com/profile/mark-zuckerberg/?list=rtb/" xr:uid="{B82B58DB-A59B-49CF-A5A7-EEDC7E318C74}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://www.forbes.com/profile/warren-buffett/?list=rtb/" xr:uid="{227D5802-A2B8-4C6A-B6A1-098310A339D3}"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://www.forbes.com/profile/larry-ellison/?list=rtb/" xr:uid="{6034804A-6D8B-497F-9D5D-9C9AABD802EF}"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://www.forbes.com/profile/steve-ballmer/?list=rtb/" xr:uid="{3A0D7481-D55A-41F5-A2D3-15887CBA5B7F}"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://www.forbes.com/profile/amancio-ortega/?list=rtb/" xr:uid="{A3412252-9B7C-4FE9-AC65-E7D85C1C23E9}"/>
+    <hyperlink ref="C11" r:id="rId9" display="https://www.forbes.com/profile/larry-page/?list=rtb/" xr:uid="{C12C8982-09A8-43FD-B5C4-E5A9873B5A3C}"/>
+    <hyperlink ref="C12" r:id="rId10" display="https://www.forbes.com/profile/sergey-brin/?list=rtb/" xr:uid="{8639CCFB-E00E-4CC0-9B99-61EBB55E7C4A}"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://www.forbes.com/profile/francoise-bettencourt-meyers/?list=rtb/" xr:uid="{16095028-BB73-4EC5-A930-097CCE9C9219}"/>
+    <hyperlink ref="C14" r:id="rId12" display="https://www.forbes.com/profile/michael-bloomberg/?list=rtb/" xr:uid="{DFA7404D-6049-480F-93E1-E7C0F0FE3831}"/>
+    <hyperlink ref="C15" r:id="rId13" display="https://www.forbes.com/profile/mukesh-ambani/?list=rtb/" xr:uid="{3D16A7C9-CA35-4841-A35D-1DD4F3325556}"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://www.forbes.com/profile/carlos-slim-helu/?list=rtb/" xr:uid="{E44B1275-CC62-4200-B076-2D7313247DF6}"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://www.forbes.com/profile/jim-walton/?list=rtb/" xr:uid="{0203FE49-891B-4E67-937D-02312CA76D86}"/>
+    <hyperlink ref="C18" r:id="rId16" display="https://www.forbes.com/profile/alice-walton/?list=rtb/" xr:uid="{07DE29EB-09F3-477D-9345-7868E7A63504}"/>
+    <hyperlink ref="C19" r:id="rId17" display="https://www.forbes.com/profile/rob-walton/?list=rtb/" xr:uid="{D8DB31A3-E001-4275-85ED-CE279B07D3AB}"/>
+    <hyperlink ref="C20" r:id="rId18" display="https://www.forbes.com/profile/mackenzie-bezos/?list=rtb/" xr:uid="{2461525A-5A1C-4B21-B276-BCC7B1914A1E}"/>
+    <hyperlink ref="C21" r:id="rId19" display="https://www.forbes.com/profile/ma-huateng/?list=rtb/" xr:uid="{3ACF5DB6-A6B8-48FF-A11C-A07D966BAC81}"/>
+    <hyperlink ref="C22" r:id="rId20" display="https://www.forbes.com/profile/charles-koch/?list=rtb/" xr:uid="{7F8028DB-8E63-4BCE-AAA6-19064AF94659}"/>
+    <hyperlink ref="C23" r:id="rId21" display="https://www.forbes.com/profile/julia-koch/?list=rtb/" xr:uid="{8F7C5931-90A4-48DB-B80E-3624DA315562}"/>
+    <hyperlink ref="C24" r:id="rId22" display="https://www.forbes.com/profile/jack-ma/?list=rtb/" xr:uid="{BCC354D2-8F2A-41E2-B3F5-D547859DBE21}"/>
+    <hyperlink ref="C25" r:id="rId23" display="https://www.forbes.com/profile/elon-musk/?list=rtb/" xr:uid="{D1F50FD1-9220-4D3E-9B95-681F9DE6CE4B}"/>
+    <hyperlink ref="C26" r:id="rId24" display="https://www.forbes.com/profile/colin-zheng-huang/?list=rtb/" xr:uid="{C9081C76-0014-4A19-9BA0-2809BAF7C85C}"/>
+    <hyperlink ref="C27" r:id="rId25" display="https://www.forbes.com/profile/phil-knight/?list=rtb/" xr:uid="{95E9FFDC-C5A6-410F-B3BC-5C80FE947DB0}"/>
+    <hyperlink ref="C28" r:id="rId26" display="https://www.forbes.com/profile/beate-heister-karl-albrecht-jr/?list=rtb/" xr:uid="{AD619C55-6864-4683-A3E5-4F00327EC695}"/>
+    <hyperlink ref="C29" r:id="rId27" display="https://www.forbes.com/profile/francois-pinault/?list=rtb/" xr:uid="{6395575E-0C88-473C-86A6-4E042C98150D}"/>
+    <hyperlink ref="C30" r:id="rId28" display="https://www.forbes.com/profile/david-thomson/?list=rtb/" xr:uid="{B359C73C-AE28-468F-B4BA-8F21CCEC0FEF}"/>
+    <hyperlink ref="C31" r:id="rId29" display="https://www.forbes.com/profile/sheldon-adelson/?list=rtb/" xr:uid="{FDD4C35B-32FE-4DFF-8EFA-FB248D27DE7C}"/>
+    <hyperlink ref="C32" r:id="rId30" display="https://www.forbes.com/profile/hui-ka-yan/?list=rtb/" xr:uid="{2DAAB11B-113D-410B-AC7C-4FFCF2BA2D1D}"/>
+    <hyperlink ref="C33" r:id="rId31" display="https://www.forbes.com/profile/dieter-schwarz/?list=rtb/" xr:uid="{A087EC2E-C26C-43ED-BDA9-51E255F8A38A}"/>
+    <hyperlink ref="C34" r:id="rId32" display="https://www.forbes.com/profile/qin-yinglin/?list=rtb/" xr:uid="{11C98C69-34CF-4031-9142-F1BAFB9CD3EE}"/>
+    <hyperlink ref="C35" r:id="rId33" display="https://www.forbes.com/profile/michael-dell/?list=rtb/" xr:uid="{EED8F953-12BC-4375-A060-95EBC1EB9BDE}"/>
+    <hyperlink ref="C36" r:id="rId34" display="https://www.forbes.com/profile/tadashi-yanai/?list=rtb/" xr:uid="{3B23C0C9-7259-4B83-BD0B-1635552D7A07}"/>
+    <hyperlink ref="C37" r:id="rId35" display="https://www.forbes.com/profile/john-mars/?list=rtb/" xr:uid="{0A9BAFC4-9181-4689-B96F-D0A2AF0344E6}"/>
+    <hyperlink ref="C38" r:id="rId36" display="https://www.forbes.com/profile/jacqueline-mars/?list=rtb/" xr:uid="{52F29971-1974-4659-A3A7-00769436C685}"/>
+    <hyperlink ref="C39" r:id="rId37" display="https://www.forbes.com/profile/len-blavatnik/?list=rtb/" xr:uid="{675A961F-31C0-441A-957F-7C52AD497DFF}"/>
+    <hyperlink ref="C40" r:id="rId38" display="https://www.forbes.com/profile/lee-shau-kee/?list=rtb/" xr:uid="{363308D3-7C7C-40EA-932D-3CF8F6838497}"/>
+    <hyperlink ref="C41" r:id="rId39" display="https://www.forbes.com/profile/li-ka-shing/?list=rtb/" xr:uid="{EF50A669-E2E7-4827-876E-5C9AE5FADE60}"/>
+    <hyperlink ref="C42" r:id="rId40" display="https://www.forbes.com/profile/giovanni-ferrero/?list=rtb/" xr:uid="{B6A191C6-9799-444F-A9F2-BEE148EC869B}"/>
+    <hyperlink ref="C43" r:id="rId41" display="https://www.forbes.com/profile/william-lei-ding/?list=rtb/" xr:uid="{4F32DB27-A124-49BB-82F5-CC74788EC4E5}"/>
+    <hyperlink ref="C44" r:id="rId42" display="https://www.forbes.com/profile/dietrich-mateschitz/?list=rtb/" xr:uid="{CA736156-554F-4FE8-8C5A-5099C1B43CD1}"/>
+    <hyperlink ref="C45" r:id="rId43" display="https://www.forbes.com/profile/yang-huiyan/?list=rtb/" xr:uid="{EF70F0AA-1B7D-49A1-A738-EE8BF8445C69}"/>
+    <hyperlink ref="C46" r:id="rId44" display="https://www.forbes.com/profile/he-xiangjian/?list=rtb/" xr:uid="{10DC7A1F-074F-4A5C-B3FC-9C986FBB9932}"/>
+    <hyperlink ref="C47" r:id="rId45" display="https://www.forbes.com/profile/alain-wertheimer/?list=rtb/" xr:uid="{9EEBADFD-D274-45E0-BC0D-E5129A2FF67B}"/>
+    <hyperlink ref="C48" r:id="rId46" display="https://www.forbes.com/profile/gerard-wertheimer-1/?list=rtb/" xr:uid="{08C561C2-6DF5-4472-BF2C-BF578D9F8A4F}"/>
+    <hyperlink ref="C49" r:id="rId47" display="https://www.forbes.com/profile/vladimir-potanin/?list=rtb/" xr:uid="{FEB94ED0-9FEA-4D39-9801-2ABA9860E3B2}"/>
+    <hyperlink ref="C50" r:id="rId48" display="https://www.forbes.com/profile/masayoshi-son/?list=rtb/" xr:uid="{866E8482-B34C-47E4-AF52-ED6A26486A31}"/>
+    <hyperlink ref="C51" r:id="rId49" display="https://www.forbes.com/profile/takemitsu-takizaki/?list=rtb/" xr:uid="{C26E9AB6-B077-472F-8AEC-394D39DA60F2}"/>
+    <hyperlink ref="C52" r:id="rId50" display="https://www.forbes.com/profile/leonid-mikhelson/?list=rtb/" xr:uid="{501F1BC3-2F16-4D7C-8BED-585D0CC96701}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
 </worksheet>
 </file>